--- a/WGOA_source_data/EwE_wgoa_catches.xlsx
+++ b/WGOA_source_data/EwE_wgoa_catches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biadias\Documents\WGOA-Ecopath-Rpath\WGOA_source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642EEF66-7221-4067-9F28-0C865193AC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83AE42-7DD9-4B29-BDDA-634A119E7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-3255" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{27374A76-405C-49B2-ABB2-B6A016766631}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="15150" windowHeight="15585" activeTab="3" xr2:uid="{27374A76-405C-49B2-ABB2-B6A016766631}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="176">
   <si>
     <t>Group name</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Check if resolved</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +595,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -632,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,6 +672,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B61ACA-ED6A-4045-8EF4-52A6AB899584}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="H61" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,9 +1633,11 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,8 +1674,14 @@
       <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1693,8 +1719,15 @@
         <f>SUM(C2:L2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <f>M2-N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1732,8 +1765,15 @@
         <f t="shared" ref="M3:M21" si="0">SUM(C3:L3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" ref="O3:O66" si="1">M3-N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1771,8 +1811,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1810,8 +1857,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1849,8 +1903,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1888,8 +1949,15 @@
         <f t="shared" si="0"/>
         <v>8.5700000000000006E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>8.5700000000000006E-8</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1927,8 +1995,15 @@
         <f t="shared" si="0"/>
         <v>1.29E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>1.29E-7</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1966,8 +2041,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2005,8 +2087,15 @@
         <f t="shared" si="0"/>
         <v>5.09475E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>5.09475E-5</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2044,8 +2133,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2083,8 +2179,15 @@
         <f t="shared" si="0"/>
         <v>4.1699999999999997E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>4.1699999999999997E-5</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2122,8 +2225,15 @@
         <f t="shared" si="0"/>
         <v>5.2330000000000002E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>5.2330000000000002E-5</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2161,8 +2271,15 @@
         <f t="shared" si="0"/>
         <v>3.62E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>3.62E-8</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2200,8 +2317,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2239,8 +2363,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2278,8 +2409,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2317,8 +2455,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2359,8 +2504,15 @@
         <f t="shared" si="0"/>
         <v>0.39284166606263776</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0.39527590000000001</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.4342339373622512E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2398,8 +2550,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2437,14 +2596,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2482,8 +2652,15 @@
         <f>SUM(C23:L23)</f>
         <v>1.4451313935508244E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>1.515183E-2</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.0051606449175567E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2518,15 +2695,22 @@
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" ref="M24:M87" si="1">SUM(C24:L24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M24:M87" si="2">SUM(C24:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="3">
@@ -2560,11 +2744,18 @@
         <v>0</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.9927749999999999E-4</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.9927749999999999E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2599,11 +2790,18 @@
         <v>0</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2641,11 +2839,18 @@
         <v>0</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7199999999999994E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <v>6.7199999999999994E-5</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2680,15 +2885,22 @@
         <v>0</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="4">
@@ -2719,11 +2931,18 @@
         <v>0</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8900000000000005E-8</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>2.0686540000000001E-4</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.067665E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2758,11 +2977,18 @@
         <v>0</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1800000000000005E-8</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1">
+        <v>3.6953360000000002E-6</v>
+      </c>
+      <c r="O30" s="14">
+        <f t="shared" si="1"/>
+        <v>-3.6135360000000004E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2797,11 +3023,18 @@
         <v>0</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>7.6400499999999996E-8</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.6400499999999996E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2839,11 +3072,18 @@
         <v>0</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1699999999999997E-7</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>4.8692679999999999E-4</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.8620979999999998E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2881,11 +3121,18 @@
         <v>0</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000004E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>3.7816249999999998E-4</v>
+      </c>
+      <c r="O33" s="14">
+        <f t="shared" si="1"/>
+        <v>-3.4816249999999996E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2923,21 +3170,32 @@
         <v>0</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2.160931E-4</v>
+      </c>
+      <c r="O34" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.160931E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="3">
@@ -2971,11 +3229,18 @@
         <v>0</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8887999999999996E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>4.2283359999999999E-2</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.1694479999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3013,17 +3278,28 @@
         <v>0</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3061,11 +3337,18 @@
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7932294670619494E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>3.2750399999999999E-3</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5181894670619496E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3100,17 +3383,28 @@
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -3148,11 +3442,18 @@
         <v>0</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1900000000000001E-7</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>5.2920379999999998E-3</v>
+      </c>
+      <c r="O42" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.2912189999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3190,17 +3491,28 @@
         <v>0</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>39</v>
       </c>
@@ -3238,11 +3550,18 @@
         <v>0</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3652924079982166E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>2.8028229999999999E-3</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="1"/>
+        <v>3.5624694079982168E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40</v>
       </c>
@@ -3277,11 +3596,18 @@
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>41</v>
       </c>
@@ -3319,11 +3645,18 @@
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1325701544496922E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>1.7107890000000001E-2</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" si="1"/>
+        <v>4.2178115444969216E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>42</v>
       </c>
@@ -3353,17 +3686,28 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9856049989564211E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>8.4705900000000001E-3</v>
+      </c>
+      <c r="O48" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1385459989564211E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -3401,11 +3745,18 @@
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0805744400297029E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>2.533926E-4</v>
+      </c>
+      <c r="O50" s="14">
+        <f t="shared" si="1"/>
+        <v>8.8271818400297037E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
@@ -3443,11 +3794,18 @@
         <v>0</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -3485,11 +3843,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7534612037080429E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>8.6040100000000005E-3</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8930602037080427E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
@@ -3527,11 +3892,18 @@
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.019163875980219E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>4.4308070000000001E-4</v>
+      </c>
+      <c r="O53" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5883568759802189E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
@@ -3569,11 +3941,18 @@
         <v>0</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4179612015782903E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>4.2192540000000004E-3</v>
+      </c>
+      <c r="O54" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1987072015782899E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
@@ -3611,17 +3990,28 @@
         <v>0</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9904473475345231E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>1.821905E-3</v>
+      </c>
+      <c r="O55" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1685423475345232E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
@@ -3659,11 +4049,18 @@
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.229661659106042E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>1.212453E-2</v>
+      </c>
+      <c r="O57" s="14">
+        <f t="shared" si="1"/>
+        <v>4.0172086591060419E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -3701,17 +4098,28 @@
         <v>0</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>51</v>
       </c>
@@ -3749,11 +4157,18 @@
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28163327328348137</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>5.4852730000000002E-2</v>
+      </c>
+      <c r="O60" s="14">
+        <f t="shared" si="1"/>
+        <v>0.22678054328348135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>52</v>
       </c>
@@ -3791,17 +4206,28 @@
         <v>0</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>53</v>
       </c>
@@ -3839,11 +4265,18 @@
         <v>0</v>
       </c>
       <c r="M63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36474750346661999</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>1.30644E-2</v>
+      </c>
+      <c r="O63" s="14">
+        <f t="shared" si="1"/>
+        <v>0.35168310346662002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -3881,11 +4314,18 @@
         <v>0</v>
       </c>
       <c r="M64" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>55</v>
       </c>
@@ -3923,11 +4363,18 @@
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -3965,11 +4412,18 @@
         <v>0</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0699718687163417E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="1">
+        <v>2.70781E-6</v>
+      </c>
+      <c r="O66" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0428937687163416E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -4007,11 +4461,18 @@
         <v>0</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7294446881828515E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="14">
+        <f t="shared" ref="O67:O97" si="3">M67-N67</f>
+        <v>1.7294446881828515E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>58</v>
       </c>
@@ -4049,11 +4510,18 @@
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>59</v>
       </c>
@@ -4091,11 +4559,18 @@
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5.5776199999999995E-4</v>
+      </c>
+      <c r="O69" s="14">
+        <f t="shared" si="3"/>
+        <v>-5.5776199999999995E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>60</v>
       </c>
@@ -4133,11 +4608,18 @@
         <v>0</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
@@ -4175,11 +4657,18 @@
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6461372668452801E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>1.9029140000000001E-4</v>
+      </c>
+      <c r="O71" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.5383002733154722E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>62</v>
       </c>
@@ -4217,11 +4706,18 @@
         <v>0</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2.4004660000000001E-4</v>
+      </c>
+      <c r="O72" s="14">
+        <f t="shared" si="3"/>
+        <v>-2.4004660000000001E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>63</v>
       </c>
@@ -4259,11 +4755,18 @@
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7123143171074544E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>5.1836460000000001E-3</v>
+      </c>
+      <c r="O73" s="14">
+        <f t="shared" si="3"/>
+        <v>-4.7133168289254564E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>64</v>
       </c>
@@ -4304,8 +4807,15 @@
         <f>SUM(C74:L74)</f>
         <v>2.231210360822765E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="1">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="O74" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6282103608227649E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>65</v>
       </c>
@@ -4343,11 +4853,18 @@
         <v>0</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1299999999999999E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="1">
+        <v>6.1299999999999999E-5</v>
+      </c>
+      <c r="O75" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>66</v>
       </c>
@@ -4385,11 +4902,18 @@
         <v>0</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>67</v>
       </c>
@@ -4427,11 +4951,18 @@
         <v>0</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1617379999999998E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="1">
+        <v>3.9688879999999997E-5</v>
+      </c>
+      <c r="O77" s="14">
+        <f t="shared" si="3"/>
+        <v>-8.0714999999999989E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -4469,11 +5000,18 @@
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>69</v>
       </c>
@@ -4511,11 +5049,18 @@
         <v>0</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8669E-8</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="1">
+        <v>2.9603439999999998E-6</v>
+      </c>
+      <c r="O79" s="14">
+        <f t="shared" si="3"/>
+        <v>-2.9216749999999999E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>70</v>
       </c>
@@ -4553,11 +5098,18 @@
         <v>0</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8033490000000001E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>2.3062619999999999E-3</v>
+      </c>
+      <c r="O80" s="14">
+        <f t="shared" si="3"/>
+        <v>-5.029129999999998E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>71</v>
       </c>
@@ -4595,11 +5147,18 @@
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>72</v>
       </c>
@@ -4637,11 +5196,18 @@
         <v>0</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>73</v>
       </c>
@@ -4679,11 +5245,18 @@
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>74</v>
       </c>
@@ -4721,11 +5294,18 @@
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>75</v>
       </c>
@@ -4763,11 +5343,18 @@
         <v>0</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>76</v>
       </c>
@@ -4805,11 +5392,18 @@
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>77</v>
       </c>
@@ -4847,11 +5441,18 @@
         <v>0</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>78</v>
       </c>
@@ -4889,11 +5490,18 @@
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" ref="M88:M97" si="2">SUM(C88:L88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M88:M97" si="4">SUM(C88:L88)</f>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>79</v>
       </c>
@@ -4931,11 +5539,18 @@
         <v>0</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80</v>
       </c>
@@ -4973,11 +5588,18 @@
         <v>0</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81</v>
       </c>
@@ -5015,11 +5637,18 @@
         <v>0</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>82</v>
       </c>
@@ -5057,11 +5686,18 @@
         <v>0</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>83</v>
       </c>
@@ -5099,11 +5735,18 @@
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>84</v>
       </c>
@@ -5141,11 +5784,18 @@
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>85</v>
       </c>
@@ -5183,11 +5833,18 @@
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>86</v>
       </c>
@@ -5225,11 +5882,18 @@
         <v>0</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>87</v>
       </c>
@@ -5267,11 +5931,18 @@
         <v>0</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5283,48 +5954,63 @@
         <v>4.5698270999999999E-3</v>
       </c>
       <c r="D98" s="3">
-        <f t="shared" ref="D98:M98" si="3">SUM(D2:D97)</f>
+        <f t="shared" ref="D98:M98" si="5">SUM(D2:D97)</f>
         <v>8.6906019775467219E-2</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69825090914899268</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1512039494141E-2</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4382313935508245E-2</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38999509606263777</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0699718687163417E-4</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1428053661074546E-3</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6282103608227649E-4</v>
       </c>
       <c r="M98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2420388291058084</v>
+      </c>
+      <c r="N98">
+        <v>0.59539109999999995</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M98" xr:uid="{A1B61ACA-ED6A-4045-8EF4-52A6AB899584}"/>
+  <conditionalFormatting sqref="O2:O97">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1E-3"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1E-3"/>
+        <color rgb="FFC00000"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
